--- a/tech/bestpractices/How-to-write-an-outline-for-a-technical-solution/技术方案大纲.xlsx
+++ b/tech/bestpractices/How-to-write-an-outline-for-a-technical-solution/技术方案大纲.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siu/Desktop/notebook/pages/tech/bestpractices/How-to-write-an-outline-for-a-technical-solution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676E10BA-ECF7-974D-9BE9-C5F31F1F2CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4B0C2-9266-F542-B4F4-FA402B8FFDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{40BBD513-5FC9-6949-8756-262253FD74DE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{40BBD513-5FC9-6949-8756-262253FD74DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B770A-90E6-7741-88AB-C83F126E0A7B}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
